--- a/Report 1 ngày/Yino-Tech-1-ngày.xlsx
+++ b/Report 1 ngày/Yino-Tech-1-ngày.xlsx
@@ -62,37 +62,37 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-04-05</t>
+    <t>2024-04-10</t>
   </si>
   <si>
     <t>Advantage+ shopping campaign_Top Sale_22/12</t>
   </si>
   <si>
+    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
+  </si>
+  <si>
     <t>Apparently We're Trouble When We Are Together Who Knew Best Friends - Bestie BFF Gift - Personalized Custom T Shirt_TSAK500NAH1349WP_14/04</t>
   </si>
   <si>
-    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
-  </si>
-  <si>
     <t>Advantage+ shopping campaign_Top Sale_15/12 Campaign</t>
   </si>
   <si>
+    <t>Runagain_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK477NAH1248WP_28/12</t>
+  </si>
+  <si>
+    <t>Black Rose Sibling Congrats On Being My Brother - Gift For Sibling - Personalized Black Mug_MUGT273CIN1509WP_11/08/23</t>
+  </si>
+  <si>
     <t>Congrats On Being My Husband Chibi - Anniversary, Vacation, Funny Gift For Couples, Family - Personalized Custom Mug_MUNV625NAH2338WP_10/06/23</t>
   </si>
   <si>
+    <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUBD466NAH1122WP_07/01</t>
+  </si>
+  <si>
+    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
+  </si>
+  <si>
     <t>Partners In Crime Just Remember If We Get Caught Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUNV538NAH1943WP_31/12</t>
-  </si>
-  <si>
-    <t>Runagain_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK477NAH1248WP_28/12</t>
-  </si>
-  <si>
-    <t>Black Rose Sibling Congrats On Being My Brother - Gift For Sibling - Personalized Black Mug_MUGT273CIN1509WP_11/08/23</t>
-  </si>
-  <si>
-    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
-  </si>
-  <si>
-    <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUBD466NAH1122WP_07/01</t>
   </si>
 </sst>
 </file>
@@ -500,19 +500,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>91734.0</v>
+        <v>81742.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>99088.0</v>
+        <v>85561.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1.08016657</v>
+        <v>1.04672017</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>734.38</v>
+        <v>484.77</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -535,19 +535,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>16813.0</v>
+        <v>20237.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>17940.0</v>
+        <v>21793.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1.06703146</v>
+        <v>1.07688887</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>147.08</v>
+        <v>144.39</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -570,19 +570,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>9346.0</v>
+        <v>5252.0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>10533.0</v>
+        <v>5885.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.12700621</v>
+        <v>1.12052551</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>37.4</v>
+        <v>39.83</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -605,19 +605,19 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>4423.0</v>
+        <v>9422.0</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4955.0</v>
+        <v>10555.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.12028035</v>
+        <v>1.12025048</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>35.52</v>
+        <v>36.73</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
@@ -640,19 +640,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6958.0</v>
+        <v>9731.0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7591.0</v>
+        <v>10542.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.09097442</v>
+        <v>1.0833419</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>29.51</v>
+        <v>29.57</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -675,19 +675,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4816.0</v>
+        <v>1806.0</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5399.0</v>
+        <v>2062.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1.12105482</v>
+        <v>1.14174972</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>27.51</v>
+        <v>19.88</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -710,19 +710,19 @@
         <v>22</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>3118.0</v>
+        <v>3367.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>3314.0</v>
+        <v>3886.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1.06286081</v>
+        <v>1.15414315</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>22.78</v>
+        <v>19.75</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
@@ -745,19 +745,19 @@
         <v>23</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1987.0</v>
+        <v>4130.0</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2285.0</v>
+        <v>4498.0</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1.14997484</v>
+        <v>1.08910412</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>20.0</v>
+        <v>19.67</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
@@ -780,19 +780,19 @@
         <v>24</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3216.0</v>
+        <v>2737.0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3633.0</v>
+        <v>3058.0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.12966418</v>
+        <v>1.1172817</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>19.57</v>
+        <v>14.72</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -815,19 +815,19 @@
         <v>25</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>930.0</v>
+        <v>904.0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1046.0</v>
+        <v>1006.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.12473118</v>
+        <v>1.11283186</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>11.73</v>
+        <v>11.8</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
@@ -850,19 +850,19 @@
         <v>26</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>1174.0</v>
+        <v>852.0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1329.0</v>
+        <v>928.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.13202726</v>
+        <v>1.08920188</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>8.33</v>
+        <v>4.42</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
